--- a/data/interim/zdt1/fitness_nsga2_real.xlsx
+++ b/data/interim/zdt1/fitness_nsga2_real.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jolene Wium\Documents\personal\studies\phd\model\model\data\interim\zdt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D4F2F-B402-4782-9797-5F9996973FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F26FC-3D5B-412D-ADAD-8695C81A3CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>obj1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>pareto</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +489,7 @@
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +502,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -513,8 +519,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -527,8 +536,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -541,8 +553,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -555,8 +570,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -569,8 +587,11 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -583,8 +604,11 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -596,6 +620,9 @@
       </c>
       <c r="D8" s="3">
         <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
